--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -515,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -899,22 +899,73 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="13" t="s">
-        <v>10</v>
+      <c r="A16" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>19250</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
+        <v>300</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
+        <v>1347</v>
       </c>
       <c r="G16" s="14">
-        <f>SUM(G4:G15)</f>
-        <v>9455.5</v>
+        <f>SUM(F16,F17)</f>
+        <v>1590</v>
       </c>
       <c r="H16" s="14">
-        <f>SUM(H4:H15)</f>
-        <v>9455.5</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="13"/>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>8450</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="9"/>
+        <v>243.00000000000003</v>
+      </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="14">
+        <f>SUM(G4:G17)</f>
+        <v>11045.5</v>
+      </c>
+      <c r="H18" s="14">
+        <f>SUM(H4:H17)</f>
+        <v>11045.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -515,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -950,22 +950,73 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="13" t="s">
+      <c r="A18" s="3">
+        <v>44004</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>19550</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="10">C18-C16</f>
+        <v>300</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" ref="F18:F19" si="11">D18*E18</f>
+        <v>1347</v>
+      </c>
+      <c r="G18" s="14">
+        <f>SUM(F18,F19)</f>
+        <v>1590</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8550</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="11"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G20" s="14">
         <f>SUM(G4:G17)</f>
         <v>11045.5</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H20" s="14">
         <f>SUM(H4:H17)</f>
         <v>11045.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -515,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1001,22 +1001,73 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="13" t="s">
-        <v>10</v>
+      <c r="A20" s="3">
+        <v>44039</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19950</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="12">C20-C18</f>
+        <v>400</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" ref="F20:F21" si="13">D20*E20</f>
+        <v>1884</v>
       </c>
       <c r="G20" s="14">
-        <f>SUM(G4:G17)</f>
-        <v>11045.5</v>
+        <f>SUM(F20,F21)</f>
+        <v>2394</v>
       </c>
       <c r="H20" s="14">
-        <f>SUM(H4:H17)</f>
-        <v>11045.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="13"/>
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>8750</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="13"/>
+        <v>509.99999999999994</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="14">
+        <f>SUM(G4:G21)</f>
+        <v>15029.5</v>
+      </c>
+      <c r="H22" s="14">
+        <f>SUM(H4:H21)</f>
+        <v>15029.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -515,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1052,22 +1052,73 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="13" t="s">
-        <v>10</v>
+      <c r="A22" s="3">
+        <v>44091</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20250</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="14">C22-C20</f>
+        <v>300</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
+        <v>1413</v>
       </c>
       <c r="G22" s="14">
-        <f>SUM(G4:G21)</f>
-        <v>15029.5</v>
+        <f>SUM(F22,F23)</f>
+        <v>1668</v>
       </c>
       <c r="H22" s="14">
-        <f>SUM(H4:H21)</f>
-        <v>15029.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="13"/>
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>8850</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="15"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="14">
+        <f>SUM(G4:G23)</f>
+        <v>16697.5</v>
+      </c>
+      <c r="H24" s="14">
+        <f>SUM(H4:H23)</f>
+        <v>16697.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -515,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1103,22 +1103,73 @@
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="13" t="s">
-        <v>10</v>
+      <c r="A24" s="3">
+        <v>44116</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20310</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="16">C24-C22</f>
+        <v>60</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" ref="F24:F25" si="17">D24*E24</f>
+        <v>282.60000000000002</v>
       </c>
       <c r="G24" s="14">
-        <f>SUM(G4:G23)</f>
-        <v>16697.5</v>
+        <f>SUM(F24,F25)</f>
+        <v>333.6</v>
       </c>
       <c r="H24" s="14">
-        <f>SUM(H4:H23)</f>
-        <v>16697.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="13"/>
+        <v>333.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8870</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="17"/>
+        <v>51</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="14">
+        <f>SUM(G4:G25)</f>
+        <v>17031.099999999999</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H4:H25)</f>
+        <v>17031.099999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,19 +149,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -169,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,12 +187,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,10 +499,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -564,13 +548,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43780</v>
+        <v>44039</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>17250</v>
+        <v>19950</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
@@ -584,41 +568,41 @@
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>7600</v>
+        <v>8750</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43815</v>
+        <v>44091</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>17550</v>
+        <v>20250</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
         <v>300</v>
       </c>
       <c r="E4" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>1347</v>
-      </c>
-      <c r="G4" s="14">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>1413</v>
+      </c>
+      <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>1590</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1590</v>
+        <v>1668</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1668</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -627,49 +611,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>7700</v>
+        <v>8850</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E5" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>43840</v>
+        <v>44116</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>17850</v>
+        <v>20310</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>60</v>
       </c>
       <c r="E6" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="11">
-        <f>D6*E6</f>
-        <v>1347</v>
-      </c>
-      <c r="G6" s="14">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>282.60000000000002</v>
+      </c>
+      <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>1590</v>
-      </c>
-      <c r="H6" s="14">
-        <v>1590</v>
+        <v>333.6</v>
+      </c>
+      <c r="H6" s="13">
+        <v>333.6</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -678,49 +662,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>7800</v>
+        <v>8870</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="E7" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="12">
-        <f>D7*E7</f>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>43868</v>
+        <v>44151</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>18150</v>
+        <v>20410</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>100</v>
       </c>
       <c r="E8" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="1"/>
-        <v>1347</v>
-      </c>
-      <c r="G8" s="14">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>471</v>
+      </c>
+      <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
-        <v>1590</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1590</v>
+        <v>598.5</v>
+      </c>
+      <c r="H8" s="13">
+        <v>598.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -729,447 +713,39 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <v>7900</v>
+        <v>8920</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="E9" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="1"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="5"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43896</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>18450</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
-        <v>300</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
-        <v>1347</v>
-      </c>
-      <c r="G10" s="14">
-        <f>SUM(F10,F11)</f>
-        <v>1590</v>
-      </c>
-      <c r="H10" s="14">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>8000</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" si="3"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>43901</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>18750</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
-        <v>300</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
-        <v>1347</v>
-      </c>
-      <c r="G12" s="14">
-        <f>SUM(F12,F13)</f>
-        <v>1590</v>
-      </c>
-      <c r="H12" s="14">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
-        <v>8100</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="15">
-        <f t="shared" si="5"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>43923</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>18950</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
-        <v>200</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
-        <v>898</v>
-      </c>
-      <c r="G14" s="14">
-        <f>SUM(F14,F15)</f>
-        <v>1505.5</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1505.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>8350</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="6"/>
-        <v>250</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="15">
-        <f t="shared" si="7"/>
-        <v>607.5</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>43963</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>19250</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
-        <v>300</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
-        <v>1347</v>
-      </c>
-      <c r="G16" s="14">
-        <f>SUM(F16,F17)</f>
-        <v>1590</v>
-      </c>
-      <c r="H16" s="14">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>8450</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="15">
-        <f t="shared" si="9"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44004</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>19550</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:D19" si="10">C18-C16</f>
-        <v>300</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" ref="F18:F19" si="11">D18*E18</f>
-        <v>1347</v>
-      </c>
-      <c r="G18" s="14">
-        <f>SUM(F18,F19)</f>
-        <v>1590</v>
-      </c>
-      <c r="H18" s="14">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
-        <v>8550</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="15">
-        <f t="shared" si="11"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44039</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19950</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:D21" si="12">C20-C18</f>
-        <v>400</v>
-      </c>
-      <c r="E20" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" ref="F20:F21" si="13">D20*E20</f>
-        <v>1884</v>
-      </c>
-      <c r="G20" s="14">
-        <f>SUM(F20,F21)</f>
-        <v>2394</v>
-      </c>
-      <c r="H20" s="14">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
-        <v>8750</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="12"/>
-        <v>200</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="15">
-        <f t="shared" si="13"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44091</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>20250</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:D23" si="14">C22-C20</f>
-        <v>300</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="11">
-        <f t="shared" ref="F22:F23" si="15">D22*E22</f>
-        <v>1413</v>
-      </c>
-      <c r="G22" s="14">
-        <f>SUM(F22,F23)</f>
-        <v>1668</v>
-      </c>
-      <c r="H22" s="14">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>8850</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="E23" s="9">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="15">
-        <f t="shared" si="15"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>44116</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>20310</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" ref="D24:D25" si="16">C24-C22</f>
-        <v>60</v>
-      </c>
-      <c r="E24" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F24" s="11">
-        <f t="shared" ref="F24:F25" si="17">D24*E24</f>
-        <v>282.60000000000002</v>
-      </c>
-      <c r="G24" s="14">
-        <f>SUM(F24,F25)</f>
-        <v>333.6</v>
-      </c>
-      <c r="H24" s="14">
-        <v>333.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8">
-        <v>8870</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="E25" s="9">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F25" s="15">
-        <f t="shared" si="17"/>
-        <v>51</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="14">
-        <f>SUM(G4:G25)</f>
-        <v>17031.099999999999</v>
-      </c>
-      <c r="H26" s="14">
-        <f>SUM(H4:H25)</f>
-        <v>17031.099999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="G10" s="13">
+        <f>SUM(G2:G9)</f>
+        <v>2600.1</v>
+      </c>
+      <c r="H10" s="13">
+        <f>SUM(H2:H9)</f>
+        <v>2600.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -499,10 +499,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -730,22 +730,73 @@
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="12" t="s">
-        <v>10</v>
+      <c r="A10" s="3">
+        <v>43843</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20710</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>300</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>1413</v>
       </c>
       <c r="G10" s="13">
-        <f>SUM(G2:G9)</f>
-        <v>2600.1</v>
+        <f>SUM(F10,F11)</f>
+        <v>1795.5</v>
       </c>
       <c r="H10" s="13">
-        <f>SUM(H2:H9)</f>
-        <v>2600.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="12"/>
+        <v>1795.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9070</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="7"/>
+        <v>382.5</v>
+      </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(G2:G11)</f>
+        <v>4395.6000000000004</v>
+      </c>
+      <c r="H12" s="13">
+        <f>SUM(H2:H11)</f>
+        <v>4395.6000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -499,10 +499,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,22 +781,175 @@
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="12" t="s">
+      <c r="A12" s="3">
+        <v>44252</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>21310</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
+        <v>600</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>2826</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(F12,F13)</f>
+        <v>3591</v>
+      </c>
+      <c r="H12" s="13">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>9370</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="9"/>
+        <v>765</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>21610</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
+        <v>300</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>1413</v>
+      </c>
+      <c r="G14" s="13">
+        <f>SUM(F14,F15)</f>
+        <v>1668</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9470</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="11"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>21860</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
+        <v>250</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G16" s="13">
+        <f>SUM(F16,F17)</f>
+        <v>1483.5</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1483.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9590</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="13"/>
+        <v>306</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G18" s="13">
         <f>SUM(G2:G11)</f>
         <v>4395.6000000000004</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H18" s="13">
         <f>SUM(H2:H11)</f>
         <v>4395.6000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -499,10 +499,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,22 +934,73 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="12" t="s">
-        <v>10</v>
+      <c r="A18" s="3">
+        <v>44328</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22060</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="14">C18-C16</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>942</v>
       </c>
       <c r="G18" s="13">
-        <f>SUM(G2:G11)</f>
-        <v>4395.6000000000004</v>
+        <f>SUM(F18,F19)</f>
+        <v>1095</v>
       </c>
       <c r="H18" s="13">
-        <f>SUM(H2:H11)</f>
-        <v>4395.6000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="12"/>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9650</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="15"/>
+        <v>153</v>
+      </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="13">
+        <f>SUM(G2:G19)</f>
+        <v>12233.1</v>
+      </c>
+      <c r="H20" s="13">
+        <f>SUM(H2:H19)</f>
+        <v>12233.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -499,10 +499,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -985,22 +985,73 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="12" t="s">
+      <c r="A20" s="3">
+        <v>44357</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>22210</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="16">C20-C18</f>
+        <v>150</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>706.5</v>
+      </c>
+      <c r="G20" s="13">
+        <f>SUM(F20,F21)</f>
+        <v>885</v>
+      </c>
+      <c r="H20" s="13">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9720</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="17"/>
+        <v>178.5</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G22" s="13">
         <f>SUM(G2:G19)</f>
         <v>12233.1</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H22" s="13">
         <f>SUM(H2:H19)</f>
         <v>12233.1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -499,10 +499,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1036,22 +1036,73 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="12" t="s">
-        <v>10</v>
+      <c r="A22" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>22810</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="18">C22-C20</f>
+        <v>600</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>2826</v>
       </c>
       <c r="G22" s="13">
-        <f>SUM(G2:G19)</f>
-        <v>12233.1</v>
+        <f>SUM(F22,F23)</f>
+        <v>3591</v>
       </c>
       <c r="H22" s="13">
-        <f>SUM(H2:H19)</f>
-        <v>12233.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="12"/>
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>10020</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="18"/>
+        <v>300</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="19"/>
+        <v>765</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="13">
+        <f>SUM(G2:G23)</f>
+        <v>16709.099999999999</v>
+      </c>
+      <c r="H24" s="13">
+        <f>SUM(H2:H23)</f>
+        <v>16709.099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -82,12 +82,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -156,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -190,6 +196,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,10 +508,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,20 +556,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44039</v>
+      <c r="A2" s="15">
+        <v>44375</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>19950</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+        <v>22810</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2-C4</f>
+        <v>600</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="11">
+        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
+        <v>2826</v>
+      </c>
+      <c r="G2" s="13">
+        <f>SUM(F2,F3)</f>
+        <v>3591</v>
+      </c>
+      <c r="H2" s="13">
+        <v>3591</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -568,41 +590,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>8750</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="14"/>
+        <v>10020</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3-C5</f>
+        <v>300</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" si="0"/>
+        <v>765</v>
+      </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44091</v>
+        <v>44357</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>20250</v>
+        <v>22210</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
-        <v>300</v>
+        <f>C4-C6</f>
+        <v>150</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>1413</v>
+        <f t="shared" si="0"/>
+        <v>706.5</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>1668</v>
+        <v>885</v>
       </c>
       <c r="H4" s="13">
-        <v>1668</v>
+        <v>885</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -611,49 +641,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>8850</v>
+        <v>9720</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>C5-C7</f>
+        <v>70</v>
       </c>
       <c r="E5" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="14">
-        <f t="shared" si="1"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="0"/>
+        <v>178.5</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44116</v>
+        <v>44328</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>20310</v>
+        <v>22060</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
-        <v>60</v>
+        <f>C6-C8</f>
+        <v>200</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>282.60000000000002</v>
+        <f t="shared" si="0"/>
+        <v>942</v>
       </c>
       <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>333.6</v>
+        <v>1095</v>
       </c>
       <c r="H6" s="13">
-        <v>333.6</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -662,50 +692,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>8870</v>
+        <v>9650</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>C7-C9</f>
+        <v>60</v>
       </c>
       <c r="E7" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" si="3"/>
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>153</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44151</v>
+        <v>44298</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>20410</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
-        <v>100</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>471</v>
-      </c>
-      <c r="G8" s="13">
-        <f>SUM(F8,F9)</f>
-        <v>598.5</v>
-      </c>
-      <c r="H8" s="13">
-        <v>598.5</v>
-      </c>
+        <v>21860</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
@@ -713,396 +730,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <v>8920</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="5"/>
-        <v>127.49999999999999</v>
-      </c>
+        <v>9590</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43843</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>20710</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
-        <v>300</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>1413</v>
+      <c r="F10" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="13">
-        <f>SUM(F10,F11)</f>
-        <v>1795.5</v>
+        <f>SUM(G2:G3)</f>
+        <v>3591</v>
       </c>
       <c r="H10" s="13">
-        <v>1795.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>9070</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="7"/>
-        <v>382.5</v>
-      </c>
+        <f>SUM(H2:H3)</f>
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="12"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44252</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>21310</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
-        <v>600</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
-        <v>2826</v>
-      </c>
-      <c r="G12" s="13">
-        <f>SUM(F12,F13)</f>
-        <v>3591</v>
-      </c>
-      <c r="H12" s="13">
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
-        <v>9370</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="8"/>
-        <v>300</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" si="9"/>
-        <v>765</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44267</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>21610</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
-        <v>300</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
-        <v>1413</v>
-      </c>
-      <c r="G14" s="13">
-        <f>SUM(F14,F15)</f>
-        <v>1668</v>
-      </c>
-      <c r="H14" s="13">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>9470</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="11"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44298</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>21860</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
-        <v>250</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
-        <v>1177.5</v>
-      </c>
-      <c r="G16" s="13">
-        <f>SUM(F16,F17)</f>
-        <v>1483.5</v>
-      </c>
-      <c r="H16" s="13">
-        <v>1483.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>9590</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="13"/>
-        <v>306</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44328</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>22060</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:D19" si="14">C18-C16</f>
-        <v>200</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
-        <v>942</v>
-      </c>
-      <c r="G18" s="13">
-        <f>SUM(F18,F19)</f>
-        <v>1095</v>
-      </c>
-      <c r="H18" s="13">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
-        <v>9650</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="15"/>
-        <v>153</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44357</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>22210</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:D21" si="16">C20-C18</f>
-        <v>150</v>
-      </c>
-      <c r="E20" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
-        <v>706.5</v>
-      </c>
-      <c r="G20" s="13">
-        <f>SUM(F20,F21)</f>
-        <v>885</v>
-      </c>
-      <c r="H20" s="13">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
-        <v>9720</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="16"/>
-        <v>70</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="17"/>
-        <v>178.5</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44375</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>22810</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:D23" si="18">C22-C20</f>
-        <v>600</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="11">
-        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
-        <v>2826</v>
-      </c>
-      <c r="G22" s="13">
-        <f>SUM(F22,F23)</f>
-        <v>3591</v>
-      </c>
-      <c r="H22" s="13">
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>10020</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="18"/>
-        <v>300</v>
-      </c>
-      <c r="E23" s="9">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="14">
-        <f t="shared" si="19"/>
-        <v>765</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="13">
-        <f>SUM(G2:G23)</f>
-        <v>16709.099999999999</v>
-      </c>
-      <c r="H24" s="13">
-        <f>SUM(H2:H23)</f>
-        <v>16709.099999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/140ee.xlsx
+++ b/sputnik/personal/ee/140ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -82,7 +82,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -199,6 +205,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,10 +517,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,31 +566,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>44375</v>
+        <v>44540</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>22810</v>
+        <v>23110</v>
       </c>
       <c r="D2" s="2">
-        <f>C2-C4</f>
-        <v>600</v>
+        <f t="shared" ref="D2:D9" si="0">C2-C4</f>
+        <v>300</v>
       </c>
       <c r="E2" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="11">
-        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
-        <v>2826</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>1488</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>3591</v>
+        <v>1890</v>
       </c>
       <c r="H2" s="13">
-        <v>3591</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -590,49 +599,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>10020</v>
+        <v>10170</v>
       </c>
       <c r="D3" s="2">
-        <f>C3-C5</f>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="E3" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" si="0"/>
-        <v>765</v>
+        <f t="shared" si="1"/>
+        <v>402</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44357</v>
+      <c r="A4" s="16">
+        <v>44375</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>22210</v>
+        <v>22810</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-C6</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
       <c r="E4" s="5">
         <v>4.71</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" si="0"/>
-        <v>706.5</v>
+        <f t="shared" ref="F4:F9" si="2">D4*E4</f>
+        <v>2826</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>885</v>
+        <v>3591</v>
       </c>
       <c r="H4" s="13">
-        <v>885</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -641,49 +650,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>9720</v>
+        <v>10020</v>
       </c>
       <c r="D5" s="2">
-        <f>C5-C7</f>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="E5" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="14">
-        <f t="shared" si="0"/>
-        <v>178.5</v>
+        <f t="shared" si="2"/>
+        <v>765</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>22060</v>
+        <v>22210</v>
       </c>
       <c r="D6" s="2">
-        <f>C6-C8</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="E6" s="5">
         <v>4.71</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>942</v>
+        <f t="shared" si="2"/>
+        <v>706.5</v>
       </c>
       <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>1095</v>
+        <v>885</v>
       </c>
       <c r="H6" s="13">
-        <v>1095</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -692,37 +701,50 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>9650</v>
+        <v>9720</v>
       </c>
       <c r="D7" s="2">
-        <f>C7-C9</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="E7" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>153</v>
+        <f t="shared" si="2"/>
+        <v>178.5</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>21860</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+        <v>22060</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="2"/>
+        <v>942</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(F8,F9)</f>
+        <v>1095</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1095</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
@@ -730,31 +752,69 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <v>9590</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="14"/>
+        <v>9650</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="13">
-        <f>SUM(G2:G3)</f>
-        <v>3591</v>
-      </c>
-      <c r="H10" s="13">
-        <f>SUM(H2:H3)</f>
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="12"/>
+      <c r="A10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>21860</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9590</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(G2:G11)</f>
+        <v>7461</v>
+      </c>
+      <c r="H12" s="13">
+        <f>SUM(H2:H11)</f>
+        <v>7461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
